--- a/updated_bot_list.xlsx
+++ b/updated_bot_list.xlsx
@@ -32,7 +32,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -43,6 +43,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,9 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,72 +454,52 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Response Time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>First Interaction Date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quiz Participation Date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Day 1 Answer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Last Interaction Date</t>
+          <t>Correct Answer</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>335643188</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>natali_avt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-11-27 00:10:05</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Неверно</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>43867297</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Alexander_Dym</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Alexander</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Dym</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-11-22 11:30:43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-11-22 11:30:43</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-11-27 00:10:02</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>Верно</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2024-11-22 11:30:43</t>
         </is>
       </c>
     </row>
@@ -527,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,32 +535,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Response Time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>First Interaction Date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quiz Participation Date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Day 2 Answer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Last Interaction Date</t>
+          <t>Correct Answer</t>
         </is>
       </c>
     </row>
@@ -588,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,32 +576,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Response Time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>First Interaction Date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quiz Participation Date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Day 3 Answer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Last Interaction Date</t>
+          <t>Correct Answer</t>
         </is>
       </c>
     </row>
@@ -649,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,32 +617,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Response Time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>First Interaction Date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quiz Participation Date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Day 4 Answer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Last Interaction Date</t>
+          <t>Correct Answer</t>
         </is>
       </c>
     </row>
@@ -710,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,32 +658,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Response Time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>First Interaction Date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quiz Participation Date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Day 5 Answer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Last Interaction Date</t>
+          <t>Correct Answer</t>
         </is>
       </c>
     </row>
@@ -771,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,32 +699,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Response Time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>First Interaction Date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quiz Participation Date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Day 6 Answer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Last Interaction Date</t>
+          <t>Correct Answer</t>
         </is>
       </c>
     </row>
@@ -832,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,32 +740,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Response Time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>First Interaction Date</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quiz Participation Date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Day 7 Answer</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Last Interaction Date</t>
+          <t>Correct Answer</t>
         </is>
       </c>
     </row>

--- a/updated_bot_list.xlsx
+++ b/updated_bot_list.xlsx
@@ -32,24 +32,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,10 +52,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,46 +446,6 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>Correct Answer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>335643188</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>natali_avt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-11-27 00:10:05</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Неверно</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>43867297</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Alexander_Dym</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-11-27 00:10:02</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Верно</t>
         </is>
       </c>
     </row>
